--- a/biology/Zoologie/Climaciella/Climaciella.xlsx
+++ b/biology/Zoologie/Climaciella/Climaciella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Climaciella est un genre d'insectes névroptères de la famille des Mantispidae. Il comprend dix espèces toutes originaires des Amériques, dont l'espèce type Climaciella brunnea.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (19 juin 2021)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (19 juin 2021) :
 Climaciella amapaensis Penny, 1983
 Climaciella brunnea (Say, 1824)
 Climaciella cubana Enderlein, 1910
@@ -551,10 +565,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom scientifique de ce taxon est Climaciella, choisi en 1910 par le zoologiste allemand Günther Enderlein[2], pour l'espèce type Climaciella brunnea, initialement classée dans le genre Mantispa sous le protonyme Mantispa brunnea, par l'entomologiste américain Thomas Say, en 1824[3].
-Climaciella a pour synonyme[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom scientifique de ce taxon est Climaciella, choisi en 1910 par le zoologiste allemand Günther Enderlein, pour l'espèce type Climaciella brunnea, initialement classée dans le genre Mantispa sous le protonyme Mantispa brunnea, par l'entomologiste américain Thomas Say, en 1824.
+Climaciella a pour synonyme :
 Nobrega Navás, 1914</t>
         </is>
       </c>
